--- a/Assets/_TankRes/excel/stage.xlsx
+++ b/Assets/_TankRes/excel/stage.xlsx
@@ -47,7 +47,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>TankNum</t>
+    <t>EnemyTankNum</t>
   </si>
   <si>
     <t>EnemyProbability</t>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Assets/_TankRes/excel/stage.xlsx
+++ b/Assets/_TankRes/excel/stage.xlsx
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
